--- a/Calculate Total Cost From PDF using OCR Using REFramework_Performer/Data/Config.xlsx
+++ b/Calculate Total Cost From PDF using OCR Using REFramework_Performer/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FPT Software\Documents\GitHub\UiPath_Automation\Calculate Total Cost From PDF using OCR Using REFramework_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB51DCB-DA69-41A8-BB35-3C4C622E54C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0CF3CB-F246-4582-93C9-FBAB9775AE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,12 +155,6 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>C:\Users\FPT Software\Documents\GitHub\UiPath_Automation\Calculate Total Cost from PDF using OCR Using REFramework\Data\Input\Invoice set 13</t>
-  </si>
-  <si>
-    <t>C:\Users\FPT Software\Documents\GitHub\UiPath_Automation\Calculate Total Cost from PDF using OCR Using REFramework\Data\Output\</t>
-  </si>
-  <si>
     <t>Total_PDF_Output</t>
   </si>
   <si>
@@ -179,7 +173,13 @@
     <t>OrchestratorQueueName</t>
   </si>
   <si>
-    <t>C:\Users\FPT Software\Documents\GitHub\UiPath_Automation\Calculate Total Cost From PDF using OCR Using REFramework_Performer\Data\Total_PDF_Output.xlsx</t>
+    <t>Data\Input</t>
+  </si>
+  <si>
+    <t>Data\Output\</t>
+  </si>
+  <si>
+    <t>Data\Output\Total_PDF_Output.xlsx</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -605,10 +605,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -619,7 +619,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>31</v>
@@ -639,23 +639,23 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>51</v>
